--- a/data-raw/Resources.xlsx
+++ b/data-raw/Resources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Slick\inst\shiny_apps\Slick\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Slick\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Heading</t>
   </si>
@@ -66,75 +66,6 @@
     <t>Languages available: English, French, Spanish, Japanese</t>
   </si>
   <si>
-    <t>Scientific Literature</t>
-  </si>
-  <si>
-    <t>Improving communication: the key to more effective MSE processes</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/abs/pii/S0165783616304039</t>
-  </si>
-  <si>
-    <t>Management strategy evaluation in regional fisheries management organizations − How to promote robust fisheries management in international settings</t>
-  </si>
-  <si>
-    <t>Nakatsuka 2017</t>
-  </si>
-  <si>
-    <t>Management strategy evaluation: best practices</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/faf.12104</t>
-  </si>
-  <si>
-    <t>Miller et al 2018</t>
-  </si>
-  <si>
-    <t>Punt el al. 2016</t>
-  </si>
-  <si>
-    <t>Butterworth 2007</t>
-  </si>
-  <si>
-    <t>Rademeyer et al. 2007</t>
-  </si>
-  <si>
-    <t>Smith 2004</t>
-  </si>
-  <si>
-    <t>Butterworth and Punt 1999</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/icesjms/article/64/4/613/639583</t>
-  </si>
-  <si>
-    <t>Why a management procedure approach? Some positives and negatives</t>
-  </si>
-  <si>
-    <t>https://cdnsciencepub.com/doi/full/10.1139/cjfas-2018-0134</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/icesjms/article/64/4/618/642589</t>
-  </si>
-  <si>
-    <t>Tips and tricks in designing management procedures</t>
-  </si>
-  <si>
-    <t>https://www.semanticscholar.org/paper/MANAGEMENT-STRATEGY-EVALUATION-THE-LIGHT-ON-THE-Smith/e1a0643d17d5a72f13251e2f8d40994803f1a394?p2df</t>
-  </si>
-  <si>
-    <t>Management strategy evaluation: the light on the hill</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/icesjms/article/56/6/985/658160</t>
-  </si>
-  <si>
-    <t>Experiences in the evaluation and implementation of management procedures</t>
-  </si>
-  <si>
-    <t>Factsheets</t>
-  </si>
-  <si>
     <t>Pew 2019</t>
   </si>
   <si>
@@ -144,75 +75,12 @@
     <t>Harvest Strategies: 21st Century Fisheries Management</t>
   </si>
   <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/fact-sheets/2016/07/harvest-strategies-management-objectives</t>
-  </si>
-  <si>
-    <t>Management Objectives</t>
-  </si>
-  <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/issue-briefs/2016/09/harvest-strategies-reference-points</t>
-  </si>
-  <si>
-    <t>Reference Points</t>
-  </si>
-  <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/fact-sheets/2016/07/harvest-control-rules</t>
-  </si>
-  <si>
-    <t>Harvest Control Rules</t>
-  </si>
-  <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/fact-sheets/2016/11/management-strategy-evaluation-for-fisheries</t>
-  </si>
-  <si>
-    <t>Management Strategy Evaluation for Fisheries</t>
-  </si>
-  <si>
-    <t>Harvest Strategies: The Next Phase of Fisheries Management</t>
-  </si>
-  <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/issue-briefs/2015/06/harvest-strategies-the-next-phase-of-fisheries-management</t>
-  </si>
-  <si>
-    <t>Pew 2015</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/articles/2019/12/09/fishing-for-the-future-the-case-for-harvest-strategies</t>
-  </si>
-  <si>
-    <t>Fishing for the Future: The Case for Harvest Strategies</t>
-  </si>
-  <si>
     <t>https://www.pewtrusts.org/en/research-and-analysis/articles/2020/05/04/new-fisheries-management-method-benefits-industry-and-ocean-health</t>
   </si>
   <si>
     <t>Demystifying MSE: Management Strategy Evaluation</t>
   </si>
   <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/video/2017/brian-jeffriess-ceo-of-australian-southern-bluefin-tuna-industry-association-on-harvest-strategies</t>
-  </si>
-  <si>
-    <t>Brian Jeffriess, CEO of Australian Southern Bluefin Tuna Industry Association, on Harvest Strategies</t>
-  </si>
-  <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/video/2017/scientist-doug-butterworth-on-the-benefits-of-harvest-strategies</t>
-  </si>
-  <si>
-    <t>Scientist Doug Butterworth on the Benefits of Harvest Strategies</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Xg7O9MCLKHA&amp;feature=emb_logo</t>
-  </si>
-  <si>
-    <t>Fisheries Queensland: How do we use harvest strategies to manage fisheries?</t>
-  </si>
-  <si>
-    <t>Pew 2017</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -222,63 +90,18 @@
     <t>https://www.youtube.com/channel/UCf8O1nHLtqq8KRx4o6IALFA</t>
   </si>
   <si>
-    <t>https://twitter.com/Hrvststrategies</t>
-  </si>
-  <si>
     <t>Website harveststrategies.org</t>
   </si>
   <si>
     <t>YouTube Harvest Strategies</t>
   </si>
   <si>
-    <t>Twitter @hrvststrategies</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>To Strengthen Fishery Management, RFMOs Should Use Science-Management Dialogue Groups</t>
-  </si>
-  <si>
-    <t>Pew 2022</t>
-  </si>
-  <si>
-    <t>Fisheries Queensland 2018</t>
-  </si>
-  <si>
-    <t>https://www.pewtrusts.org/en/research-and-analysis/issue-briefs/2022/05/to-strengthen-fishery-management-rfmos-should-use-science-management-dialogue-groups</t>
-  </si>
-  <si>
-    <t>Harveststrategies.org 2019</t>
-  </si>
-  <si>
     <t>Harveststrategies.org 2020</t>
   </si>
   <si>
-    <t>https://harveststrategies.org/blog-new-animation-celebrates-the-remarkable-story-of-the-southern-bluefin-tuna/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=69k1h1HTrk4&amp;t=1s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ILMDQ-5GSM8</t>
-  </si>
-  <si>
-    <t>Harveststrategies.org 2022</t>
-  </si>
-  <si>
-    <t>Pew 2021</t>
-  </si>
-  <si>
-    <t>Southern Bluefin Tuna: A Harvest Strategies Success Story</t>
-  </si>
-  <si>
-    <t>How Harvest Strategies Bring Stability to the Seafood Supply Chain</t>
-  </si>
-  <si>
-    <t>Why Harvest Strategies Matter for Seafood Processors</t>
-  </si>
-  <si>
     <t>Languages available: English, French, Spanish, Japanese, Chinese (Simplified and Traditional), Brazilian Portuguese and Thai</t>
   </si>
   <si>
@@ -292,13 +115,16 @@
   </si>
   <si>
     <t>Languages available: English, with French, Spanish and Bahasa Indonesia subtitles</t>
+  </si>
+  <si>
+    <t>Educational Materials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +151,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,11 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.7265625" bestFit="1" customWidth="1"/>
@@ -723,388 +556,55 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1117,14 +617,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K9" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1135,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1143,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1159,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1167,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1175,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Resources.xlsx
+++ b/data-raw/Resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Heading</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Educational Materials</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Hrvststrategies</t>
+  </si>
+  <si>
+    <t>@hrvststrategies</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,6 +613,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -616,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
